--- a/personas.xlsx
+++ b/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,41 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gonzales Castro Elia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>eligonzalescastro27@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>944898588</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27/01/2005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/personas.xlsx
+++ b/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,41 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Elia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>eligonzales@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>27/01/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/personas.xlsx
+++ b/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,41 +532,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Elia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>eligonzales@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>27/01/2023</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
